--- a/151_test_data.xlsx
+++ b/151_test_data.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\artic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29E953F-517D-4DBD-A4A8-0426E2BCB93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188EB608-605A-46D0-9794-A773B6A6FB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="57">
   <si>
     <t>Additive concentration</t>
   </si>
@@ -182,6 +191,21 @@
   <si>
     <t>ref</t>
   </si>
+  <si>
+    <t>Suppressed hysteresis and enhanced performance of triple cation perovskite solar cell with chlorine incorporation†</t>
+  </si>
+  <si>
+    <t>High-throughput compositional mapping of triple-cation tin–lead perovskites for high-efficiency solar cells</t>
+  </si>
+  <si>
+    <t>Selection of an anti-solvent for efficient and stable cesium-containing triple cation planar perovskite solar cells†</t>
+  </si>
+  <si>
+    <t>Cation influence on carrier dynamics in perovskite solar cells</t>
+  </si>
+  <si>
+    <t>The Effect of Cs/FA Ratio on the Long-Term Stability of Mixed Cation Perovskite Solar Cells</t>
+  </si>
 </sst>
 </file>
 
@@ -226,7 +250,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,19 +265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -311,16 +323,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z152"/>
+  <dimension ref="A1:Z155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z121" sqref="Z121"/>
+    <sheetView tabSelected="1" topLeftCell="E121" workbookViewId="0">
+      <selection activeCell="AB142" sqref="AB142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -686,7 +697,7 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -766,7 +777,7 @@
       <c r="Y2">
         <v>16.23</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -846,7 +857,7 @@
       <c r="Y3">
         <v>17.14</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -926,7 +937,7 @@
       <c r="Y4">
         <v>18.22</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1006,7 +1017,7 @@
       <c r="Y5">
         <v>16.8</v>
       </c>
-      <c r="Z5" s="7" t="s">
+      <c r="Z5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1086,7 +1097,7 @@
       <c r="Y6">
         <v>14</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="Z6" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1166,7 +1177,7 @@
       <c r="Y7">
         <v>15.3</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="Z7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1246,7 +1257,7 @@
       <c r="Y8">
         <v>15.8</v>
       </c>
-      <c r="Z8" s="8" t="s">
+      <c r="Z8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1326,247 +1337,247 @@
       <c r="Y9">
         <v>15</v>
       </c>
-      <c r="Z9" s="8" t="s">
+      <c r="Z9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="4" customFormat="1">
-      <c r="A10" s="4">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="10" spans="1:26" s="3" customFormat="1">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
         <v>1.8</v>
       </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>0.35</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>1.8</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>0.8</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>0.2</v>
       </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>2.8</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>1.5</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>8</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>4</v>
       </c>
-      <c r="W10" s="4">
-        <v>1</v>
-      </c>
-      <c r="X10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="4">
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="3">
         <v>20.76</v>
       </c>
-      <c r="Z10" s="8" t="s">
+      <c r="Z10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="4" customFormat="1">
-      <c r="A11" s="4">
+    <row r="11" spans="1:26" s="3" customFormat="1">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
         <v>1.8</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <v>0.35</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>1.8</v>
       </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
         <v>0.8</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>0.2</v>
       </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
         <v>2.8</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>1.5</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>8</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>4</v>
       </c>
-      <c r="W11" s="4">
-        <v>1</v>
-      </c>
-      <c r="X11" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="4">
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3">
         <v>21.79</v>
       </c>
-      <c r="Z11" s="8" t="s">
+      <c r="Z11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="4" customFormat="1">
-      <c r="A12" s="4">
+    <row r="12" spans="1:26" s="3" customFormat="1">
+      <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
         <v>1.8</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>0.35</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>1.8</v>
       </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>0.8</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>0.2</v>
       </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>2.8</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="3">
         <v>1.5</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>8</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>4</v>
       </c>
-      <c r="W12" s="4">
-        <v>1</v>
-      </c>
-      <c r="X12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="4">
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3">
         <v>22.54</v>
       </c>
-      <c r="Z12" s="8" t="s">
+      <c r="Z12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1646,7 +1657,7 @@
       <c r="Y13">
         <v>16.77</v>
       </c>
-      <c r="Z13" s="8" t="s">
+      <c r="Z13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1726,7 +1737,7 @@
       <c r="Y14">
         <v>17.7</v>
       </c>
-      <c r="Z14" s="8" t="s">
+      <c r="Z14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1806,7 +1817,7 @@
       <c r="Y15">
         <v>17.579999999999998</v>
       </c>
-      <c r="Z15" s="9" t="s">
+      <c r="Z15" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1886,7 +1897,7 @@
       <c r="Y16">
         <v>18.78</v>
       </c>
-      <c r="Z16" s="8" t="s">
+      <c r="Z16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1966,7 +1977,7 @@
       <c r="Y17">
         <v>19.510000000000002</v>
       </c>
-      <c r="Z17" s="8" t="s">
+      <c r="Z17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2046,7 +2057,7 @@
       <c r="Y18">
         <v>14.51</v>
       </c>
-      <c r="Z18" s="9" t="s">
+      <c r="Z18" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2126,7 +2137,7 @@
       <c r="Y19">
         <v>18.62</v>
       </c>
-      <c r="Z19" s="8" t="s">
+      <c r="Z19" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2206,7 +2217,7 @@
       <c r="Y20">
         <v>15.63</v>
       </c>
-      <c r="Z20" s="8" t="s">
+      <c r="Z20" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2283,10 +2294,10 @@
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Y21" s="4">
         <v>17.079999999999998</v>
       </c>
-      <c r="Z21" s="8" t="s">
+      <c r="Z21" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2363,10 +2374,10 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="4">
         <v>20.48</v>
       </c>
-      <c r="Z22" s="8" t="s">
+      <c r="Z22" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2443,10 +2454,10 @@
       <c r="X23">
         <v>0</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="Y23" s="4">
         <v>13.63</v>
       </c>
-      <c r="Z23" s="8" t="s">
+      <c r="Z23" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2523,10 +2534,10 @@
       <c r="X24">
         <v>0</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="4">
         <v>17.350000000000001</v>
       </c>
-      <c r="Z24" s="8" t="s">
+      <c r="Z24" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2603,10 +2614,10 @@
       <c r="X25">
         <v>2</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y25" s="4">
         <v>20.36</v>
       </c>
-      <c r="Z25" s="8" t="s">
+      <c r="Z25" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2683,10 +2694,10 @@
       <c r="X26">
         <v>2</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="Y26" s="4">
         <v>21.6</v>
       </c>
-      <c r="Z26" s="8" t="s">
+      <c r="Z26" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2763,10 +2774,10 @@
       <c r="X27">
         <v>2</v>
       </c>
-      <c r="Y27" s="6">
+      <c r="Y27" s="4">
         <v>22.14</v>
       </c>
-      <c r="Z27" s="8" t="s">
+      <c r="Z27" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2843,10 +2854,10 @@
       <c r="X28">
         <v>2</v>
       </c>
-      <c r="Y28" s="6">
+      <c r="Y28" s="4">
         <v>4.99</v>
       </c>
-      <c r="Z28" s="8" t="s">
+      <c r="Z28" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2923,10 +2934,10 @@
       <c r="X29">
         <v>2</v>
       </c>
-      <c r="Y29" s="6">
+      <c r="Y29" s="4">
         <v>4.1399999999999997</v>
       </c>
-      <c r="Z29" s="8" t="s">
+      <c r="Z29" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3003,10 +3014,10 @@
       <c r="X30">
         <v>2</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="Y30" s="4">
         <v>5.83</v>
       </c>
-      <c r="Z30" s="8" t="s">
+      <c r="Z30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3083,10 +3094,10 @@
       <c r="X31">
         <v>2</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="Y31" s="4">
         <v>5.17</v>
       </c>
-      <c r="Z31" s="8" t="s">
+      <c r="Z31" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3163,10 +3174,10 @@
       <c r="X32">
         <v>2</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="Y32" s="4">
         <v>7.3</v>
       </c>
-      <c r="Z32" s="8" t="s">
+      <c r="Z32" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3243,10 +3254,10 @@
       <c r="X33">
         <v>2</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="Y33" s="4">
         <v>6.54</v>
       </c>
-      <c r="Z33" s="8" t="s">
+      <c r="Z33" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3323,10 +3334,10 @@
       <c r="X34">
         <v>2</v>
       </c>
-      <c r="Y34" s="6">
+      <c r="Y34" s="4">
         <v>7.9</v>
       </c>
-      <c r="Z34" s="8" t="s">
+      <c r="Z34" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3403,10 +3414,10 @@
       <c r="X35">
         <v>2</v>
       </c>
-      <c r="Y35" s="6">
+      <c r="Y35" s="4">
         <v>7</v>
       </c>
-      <c r="Z35" s="8" t="s">
+      <c r="Z35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3483,10 +3494,10 @@
       <c r="X36">
         <v>2</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="Y36" s="4">
         <v>6.67</v>
       </c>
-      <c r="Z36" s="8" t="s">
+      <c r="Z36" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3563,10 +3574,10 @@
       <c r="X37">
         <v>2</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="Y37" s="4">
         <v>5.83</v>
       </c>
-      <c r="Z37" s="8" t="s">
+      <c r="Z37" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3643,10 +3654,10 @@
       <c r="X38">
         <v>0</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="Y38" s="4">
         <v>19.32</v>
       </c>
-      <c r="Z38" s="8" t="s">
+      <c r="Z38" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3723,10 +3734,10 @@
       <c r="X39">
         <v>0</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="Y39" s="4">
         <v>20.95</v>
       </c>
-      <c r="Z39" s="8" t="s">
+      <c r="Z39" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3803,10 +3814,10 @@
       <c r="X40">
         <v>0</v>
       </c>
-      <c r="Y40" s="6">
+      <c r="Y40" s="4">
         <v>21.48</v>
       </c>
-      <c r="Z40" s="8" t="s">
+      <c r="Z40" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3883,10 +3894,10 @@
       <c r="X41">
         <v>0</v>
       </c>
-      <c r="Y41" s="6">
+      <c r="Y41" s="4">
         <v>21.13</v>
       </c>
-      <c r="Z41" s="8" t="s">
+      <c r="Z41" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3963,10 +3974,10 @@
       <c r="X42">
         <v>0</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="Y42" s="4">
         <v>20.02</v>
       </c>
-      <c r="Z42" s="8" t="s">
+      <c r="Z42" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4043,10 +4054,10 @@
       <c r="X43">
         <v>2</v>
       </c>
-      <c r="Y43" s="6">
+      <c r="Y43" s="4">
         <v>5.47</v>
       </c>
-      <c r="Z43" s="8" t="s">
+      <c r="Z43" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4123,10 +4134,10 @@
       <c r="X44">
         <v>2</v>
       </c>
-      <c r="Y44" s="6">
+      <c r="Y44" s="4">
         <v>4.57</v>
       </c>
-      <c r="Z44" s="9" t="s">
+      <c r="Z44" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4203,10 +4214,10 @@
       <c r="X45">
         <v>2</v>
       </c>
-      <c r="Y45" s="6">
+      <c r="Y45" s="4">
         <v>7.6</v>
       </c>
-      <c r="Z45" s="8" t="s">
+      <c r="Z45" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4283,10 +4294,10 @@
       <c r="X46">
         <v>2</v>
       </c>
-      <c r="Y46" s="6">
+      <c r="Y46" s="4">
         <v>6.98</v>
       </c>
-      <c r="Z46" s="9" t="s">
+      <c r="Z46" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4363,10 +4374,10 @@
       <c r="X47">
         <v>2</v>
       </c>
-      <c r="Y47" s="6">
+      <c r="Y47" s="4">
         <v>6.91</v>
       </c>
-      <c r="Z47" s="8" t="s">
+      <c r="Z47" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4443,10 +4454,10 @@
       <c r="X48">
         <v>2</v>
       </c>
-      <c r="Y48" s="6">
+      <c r="Y48" s="4">
         <v>6.05</v>
       </c>
-      <c r="Z48" s="9" t="s">
+      <c r="Z48" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4523,10 +4534,10 @@
       <c r="X49">
         <v>2</v>
       </c>
-      <c r="Y49" s="6">
+      <c r="Y49" s="4">
         <v>4.97</v>
       </c>
-      <c r="Z49" s="8" t="s">
+      <c r="Z49" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4603,10 +4614,10 @@
       <c r="X50">
         <v>2</v>
       </c>
-      <c r="Y50" s="6">
+      <c r="Y50" s="4">
         <v>4.3899999999999997</v>
       </c>
-      <c r="Z50" s="9" t="s">
+      <c r="Z50" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4683,10 +4694,10 @@
       <c r="X51">
         <v>2</v>
       </c>
-      <c r="Y51" s="6">
+      <c r="Y51" s="4">
         <v>6</v>
       </c>
-      <c r="Z51" s="10" t="s">
+      <c r="Z51" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4763,10 +4774,10 @@
       <c r="X52">
         <v>2</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="Y52" s="4">
         <v>2.21</v>
       </c>
-      <c r="Z52" s="10" t="s">
+      <c r="Z52" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4843,10 +4854,10 @@
       <c r="X53">
         <v>2</v>
       </c>
-      <c r="Y53" s="6">
+      <c r="Y53" s="4">
         <v>3.89</v>
       </c>
-      <c r="Z53" s="10" t="s">
+      <c r="Z53" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4923,10 +4934,10 @@
       <c r="X54">
         <v>2</v>
       </c>
-      <c r="Y54" s="6">
+      <c r="Y54" s="4">
         <v>5.53</v>
       </c>
-      <c r="Z54" s="10" t="s">
+      <c r="Z54" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5003,10 +5014,10 @@
       <c r="X55">
         <v>2</v>
       </c>
-      <c r="Y55" s="6">
+      <c r="Y55" s="4">
         <v>7.35</v>
       </c>
-      <c r="Z55" s="10" t="s">
+      <c r="Z55" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5083,10 +5094,10 @@
       <c r="X56">
         <v>2</v>
       </c>
-      <c r="Y56" s="6">
+      <c r="Y56" s="4">
         <v>8.64</v>
       </c>
-      <c r="Z56" s="10" t="s">
+      <c r="Z56" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5163,10 +5174,10 @@
       <c r="X57">
         <v>2</v>
       </c>
-      <c r="Y57" s="6">
+      <c r="Y57" s="4">
         <v>7.76</v>
       </c>
-      <c r="Z57" s="10" t="s">
+      <c r="Z57" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5243,10 +5254,10 @@
       <c r="X58">
         <v>0</v>
       </c>
-      <c r="Y58" s="6">
+      <c r="Y58" s="4">
         <v>15.9</v>
       </c>
-      <c r="Z58" s="7" t="s">
+      <c r="Z58" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5323,10 +5334,10 @@
       <c r="X59">
         <v>0</v>
       </c>
-      <c r="Y59" s="6">
+      <c r="Y59" s="4">
         <v>16.93</v>
       </c>
-      <c r="Z59" s="7" t="s">
+      <c r="Z59" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5403,10 +5414,10 @@
       <c r="X60">
         <v>2</v>
       </c>
-      <c r="Y60" s="6">
+      <c r="Y60" s="4">
         <v>4.74</v>
       </c>
-      <c r="Z60" s="8" t="s">
+      <c r="Z60" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5483,10 +5494,10 @@
       <c r="X61">
         <v>2</v>
       </c>
-      <c r="Y61" s="6">
+      <c r="Y61" s="4">
         <v>3.91</v>
       </c>
-      <c r="Z61" s="9" t="s">
+      <c r="Z61" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5563,10 +5574,10 @@
       <c r="X62">
         <v>2</v>
       </c>
-      <c r="Y62" s="6">
+      <c r="Y62" s="4">
         <v>6.68</v>
       </c>
-      <c r="Z62" s="8" t="s">
+      <c r="Z62" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5643,10 +5654,10 @@
       <c r="X63">
         <v>2</v>
       </c>
-      <c r="Y63" s="6">
+      <c r="Y63" s="4">
         <v>7.15</v>
       </c>
-      <c r="Z63" s="8" t="s">
+      <c r="Z63" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5723,10 +5734,10 @@
       <c r="X64">
         <v>2</v>
       </c>
-      <c r="Y64" s="6">
+      <c r="Y64" s="4">
         <v>5.72</v>
       </c>
-      <c r="Z64" s="8" t="s">
+      <c r="Z64" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5803,10 +5814,10 @@
       <c r="X65">
         <v>0</v>
       </c>
-      <c r="Y65" s="6">
+      <c r="Y65" s="4">
         <v>6.17</v>
       </c>
-      <c r="Z65" s="8" t="s">
+      <c r="Z65" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5883,10 +5894,10 @@
       <c r="X66">
         <v>2</v>
       </c>
-      <c r="Y66" s="6">
+      <c r="Y66" s="4">
         <v>8.0299999999999994</v>
       </c>
-      <c r="Z66" s="8" t="s">
+      <c r="Z66" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5963,10 +5974,10 @@
       <c r="X67">
         <v>2</v>
       </c>
-      <c r="Y67" s="6">
+      <c r="Y67" s="4">
         <v>16.98</v>
       </c>
-      <c r="Z67" s="8" t="s">
+      <c r="Z67" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6043,10 +6054,10 @@
       <c r="X68">
         <v>2</v>
       </c>
-      <c r="Y68" s="6">
+      <c r="Y68" s="4">
         <v>14.39</v>
       </c>
-      <c r="Z68" s="11" t="s">
+      <c r="Z68" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6123,10 +6134,10 @@
       <c r="X69">
         <v>2</v>
       </c>
-      <c r="Y69" s="6">
+      <c r="Y69" s="4">
         <v>14.47</v>
       </c>
-      <c r="Z69" s="8" t="s">
+      <c r="Z69" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6203,10 +6214,10 @@
       <c r="X70">
         <v>2</v>
       </c>
-      <c r="Y70" s="6">
+      <c r="Y70" s="4">
         <v>16.54</v>
       </c>
-      <c r="Z70" s="8" t="s">
+      <c r="Z70" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6283,10 +6294,10 @@
       <c r="X71">
         <v>2</v>
       </c>
-      <c r="Y71" s="6">
+      <c r="Y71" s="4">
         <v>17.149999999999999</v>
       </c>
-      <c r="Z71" s="8" t="s">
+      <c r="Z71" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6363,10 +6374,10 @@
       <c r="X72">
         <v>2</v>
       </c>
-      <c r="Y72" s="6">
+      <c r="Y72" s="4">
         <v>17.71</v>
       </c>
-      <c r="Z72" s="8" t="s">
+      <c r="Z72" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6443,10 +6454,10 @@
       <c r="X73">
         <v>2</v>
       </c>
-      <c r="Y73" s="6">
+      <c r="Y73" s="4">
         <v>15.94</v>
       </c>
-      <c r="Z73" s="8" t="s">
+      <c r="Z73" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6523,10 +6534,10 @@
       <c r="X74">
         <v>2</v>
       </c>
-      <c r="Y74" s="6">
+      <c r="Y74" s="4">
         <v>13.81</v>
       </c>
-      <c r="Z74" s="8" t="s">
+      <c r="Z74" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6603,10 +6614,10 @@
       <c r="X75">
         <v>2</v>
       </c>
-      <c r="Y75" s="6">
+      <c r="Y75" s="4">
         <v>13.41</v>
       </c>
-      <c r="Z75" s="8" t="s">
+      <c r="Z75" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6683,10 +6694,10 @@
       <c r="X76">
         <v>2</v>
       </c>
-      <c r="Y76" s="6">
+      <c r="Y76" s="4">
         <v>15.83</v>
       </c>
-      <c r="Z76" s="8" t="s">
+      <c r="Z76" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6763,10 +6774,10 @@
       <c r="X77">
         <v>2</v>
       </c>
-      <c r="Y77" s="6">
+      <c r="Y77" s="4">
         <v>18.13</v>
       </c>
-      <c r="Z77" s="8" t="s">
+      <c r="Z77" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6843,10 +6854,10 @@
       <c r="X78">
         <v>2</v>
       </c>
-      <c r="Y78" s="6">
+      <c r="Y78" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="Z78" s="8" t="s">
+      <c r="Z78" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6923,10 +6934,10 @@
       <c r="X79">
         <v>2</v>
       </c>
-      <c r="Y79" s="6">
+      <c r="Y79" s="4">
         <v>12.07</v>
       </c>
-      <c r="Z79" s="8" t="s">
+      <c r="Z79" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7003,10 +7014,10 @@
       <c r="X80">
         <v>2</v>
       </c>
-      <c r="Y80" s="6">
+      <c r="Y80" s="4">
         <v>12.67</v>
       </c>
-      <c r="Z80" s="9" t="s">
+      <c r="Z80" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7083,10 +7094,10 @@
       <c r="X81">
         <v>2</v>
       </c>
-      <c r="Y81" s="6">
+      <c r="Y81" s="4">
         <v>13.51</v>
       </c>
-      <c r="Z81" s="8" t="s">
+      <c r="Z81" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7163,10 +7174,10 @@
       <c r="X82">
         <v>2</v>
       </c>
-      <c r="Y82" s="6">
+      <c r="Y82" s="4">
         <v>13.73</v>
       </c>
-      <c r="Z82" s="9" t="s">
+      <c r="Z82" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7243,10 +7254,10 @@
       <c r="X83">
         <v>0</v>
       </c>
-      <c r="Y83" s="6">
+      <c r="Y83" s="4">
         <v>12</v>
       </c>
-      <c r="Z83" s="8" t="s">
+      <c r="Z83" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7323,10 +7334,10 @@
       <c r="X84">
         <v>0</v>
       </c>
-      <c r="Y84" s="6">
+      <c r="Y84" s="4">
         <v>11.1</v>
       </c>
-      <c r="Z84" s="9" t="s">
+      <c r="Z84" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7403,10 +7414,10 @@
       <c r="X85">
         <v>0</v>
       </c>
-      <c r="Y85" s="6">
+      <c r="Y85" s="4">
         <v>14.4</v>
       </c>
-      <c r="Z85" s="8" t="s">
+      <c r="Z85" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7483,10 +7494,10 @@
       <c r="X86">
         <v>0</v>
       </c>
-      <c r="Y86" s="6">
+      <c r="Y86" s="4">
         <v>13.3</v>
       </c>
-      <c r="Z86" s="9" t="s">
+      <c r="Z86" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7566,7 +7577,7 @@
       <c r="Y87">
         <v>16.3</v>
       </c>
-      <c r="Z87" s="11" t="s">
+      <c r="Z87" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7646,7 +7657,7 @@
       <c r="Y88">
         <v>17.2</v>
       </c>
-      <c r="Z88" s="8" t="s">
+      <c r="Z88" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7723,10 +7734,10 @@
       <c r="X89">
         <v>0</v>
       </c>
-      <c r="Y89" s="6">
+      <c r="Y89" s="4">
         <v>6.83</v>
       </c>
-      <c r="Z89" s="8" t="s">
+      <c r="Z89" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7803,10 +7814,10 @@
       <c r="X90">
         <v>0</v>
       </c>
-      <c r="Y90" s="6">
+      <c r="Y90" s="4">
         <v>7.18</v>
       </c>
-      <c r="Z90" s="8" t="s">
+      <c r="Z90" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7883,10 +7894,10 @@
       <c r="X91">
         <v>0</v>
       </c>
-      <c r="Y91" s="6">
+      <c r="Y91" s="4">
         <v>8.11</v>
       </c>
-      <c r="Z91" s="8" t="s">
+      <c r="Z91" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7963,10 +7974,10 @@
       <c r="X92">
         <v>0</v>
       </c>
-      <c r="Y92" s="6">
+      <c r="Y92" s="4">
         <v>9.0500000000000007</v>
       </c>
-      <c r="Z92" s="8" t="s">
+      <c r="Z92" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8043,10 +8054,10 @@
       <c r="X93">
         <v>0</v>
       </c>
-      <c r="Y93" s="6">
+      <c r="Y93" s="4">
         <v>7.84</v>
       </c>
-      <c r="Z93" s="8" t="s">
+      <c r="Z93" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8123,10 +8134,10 @@
       <c r="X94">
         <v>0</v>
       </c>
-      <c r="Y94" s="6">
+      <c r="Y94" s="4">
         <v>15.61</v>
       </c>
-      <c r="Z94" s="8" t="s">
+      <c r="Z94" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8203,10 +8214,10 @@
       <c r="X95">
         <v>0</v>
       </c>
-      <c r="Y95" s="6">
+      <c r="Y95" s="4">
         <v>16.59</v>
       </c>
-      <c r="Z95" s="8" t="s">
+      <c r="Z95" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8283,10 +8294,10 @@
       <c r="X96">
         <v>0</v>
       </c>
-      <c r="Y96" s="6">
+      <c r="Y96" s="4">
         <v>14.07</v>
       </c>
-      <c r="Z96" s="8" t="s">
+      <c r="Z96" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8363,10 +8374,10 @@
       <c r="X97">
         <v>0</v>
       </c>
-      <c r="Y97" s="6">
+      <c r="Y97" s="4">
         <v>13.6</v>
       </c>
-      <c r="Z97" s="8" t="s">
+      <c r="Z97" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8443,10 +8454,10 @@
       <c r="X98">
         <v>0</v>
       </c>
-      <c r="Y98" s="6">
+      <c r="Y98" s="4">
         <v>14.93</v>
       </c>
-      <c r="Z98" s="8" t="s">
+      <c r="Z98" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8523,10 +8534,10 @@
       <c r="X99">
         <v>0</v>
       </c>
-      <c r="Y99" s="6">
+      <c r="Y99" s="4">
         <v>15.7</v>
       </c>
-      <c r="Z99" s="8" t="s">
+      <c r="Z99" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8603,10 +8614,10 @@
       <c r="X100">
         <v>0</v>
       </c>
-      <c r="Y100" s="6">
+      <c r="Y100" s="4">
         <v>14.44</v>
       </c>
-      <c r="Z100" s="8" t="s">
+      <c r="Z100" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8683,10 +8694,10 @@
       <c r="X101">
         <v>7</v>
       </c>
-      <c r="Y101" s="6">
+      <c r="Y101" s="4">
         <v>19.86</v>
       </c>
-      <c r="Z101" s="8" t="s">
+      <c r="Z101" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8763,10 +8774,10 @@
       <c r="X102">
         <v>7</v>
       </c>
-      <c r="Y102" s="6">
+      <c r="Y102" s="4">
         <v>20.3</v>
       </c>
-      <c r="Z102" s="8" t="s">
+      <c r="Z102" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8843,10 +8854,10 @@
       <c r="X103">
         <v>7</v>
       </c>
-      <c r="Y103" s="6">
+      <c r="Y103" s="4">
         <v>21.5</v>
       </c>
-      <c r="Z103" s="8" t="s">
+      <c r="Z103" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8923,10 +8934,10 @@
       <c r="X104">
         <v>7</v>
       </c>
-      <c r="Y104" s="6">
+      <c r="Y104" s="4">
         <v>17.5</v>
       </c>
-      <c r="Z104" s="8" t="s">
+      <c r="Z104" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9003,10 +9014,10 @@
       <c r="X105">
         <v>7</v>
       </c>
-      <c r="Y105" s="6">
+      <c r="Y105" s="4">
         <v>21.56</v>
       </c>
-      <c r="Z105" s="8" t="s">
+      <c r="Z105" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -9083,10 +9094,10 @@
       <c r="X106">
         <v>8</v>
       </c>
-      <c r="Y106" s="6">
+      <c r="Y106" s="4">
         <v>13.87</v>
       </c>
-      <c r="Z106" s="8" t="s">
+      <c r="Z106" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9163,10 +9174,10 @@
       <c r="X107">
         <v>8</v>
       </c>
-      <c r="Y107" s="6">
+      <c r="Y107" s="4">
         <v>14.36</v>
       </c>
-      <c r="Z107" s="8" t="s">
+      <c r="Z107" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9243,10 +9254,10 @@
       <c r="X108">
         <v>8</v>
       </c>
-      <c r="Y108" s="6">
+      <c r="Y108" s="4">
         <v>15.43</v>
       </c>
-      <c r="Z108" s="8" t="s">
+      <c r="Z108" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9323,10 +9334,10 @@
       <c r="X109">
         <v>8</v>
       </c>
-      <c r="Y109" s="6">
+      <c r="Y109" s="4">
         <v>14.94</v>
       </c>
-      <c r="Z109" s="8" t="s">
+      <c r="Z109" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9403,10 +9414,10 @@
       <c r="X110">
         <v>8</v>
       </c>
-      <c r="Y110" s="6">
+      <c r="Y110" s="4">
         <v>15.28</v>
       </c>
-      <c r="Z110" s="8" t="s">
+      <c r="Z110" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9483,10 +9494,10 @@
       <c r="X111">
         <v>8</v>
       </c>
-      <c r="Y111" s="6">
+      <c r="Y111" s="4">
         <v>16.87</v>
       </c>
-      <c r="Z111" s="8" t="s">
+      <c r="Z111" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9563,10 +9574,10 @@
       <c r="X112">
         <v>8</v>
       </c>
-      <c r="Y112" s="6">
+      <c r="Y112" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="Z112" s="8" t="s">
+      <c r="Z112" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9643,10 +9654,10 @@
       <c r="X113">
         <v>8</v>
       </c>
-      <c r="Y113" s="6">
+      <c r="Y113" s="4">
         <v>15.47</v>
       </c>
-      <c r="Z113" s="8" t="s">
+      <c r="Z113" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9723,10 +9734,10 @@
       <c r="X114">
         <v>8</v>
       </c>
-      <c r="Y114" s="6">
+      <c r="Y114" s="4">
         <v>18.3</v>
       </c>
-      <c r="Z114" s="8" t="s">
+      <c r="Z114" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9803,10 +9814,10 @@
       <c r="X115">
         <v>8</v>
       </c>
-      <c r="Y115" s="6">
+      <c r="Y115" s="4">
         <v>17.02</v>
       </c>
-      <c r="Z115" s="8" t="s">
+      <c r="Z115" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9886,6 +9897,9 @@
       <c r="Y116" s="2">
         <v>17.510000000000002</v>
       </c>
+      <c r="Z116" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="117" spans="1:26">
       <c r="A117">
@@ -9963,6 +9977,9 @@
       <c r="Y117">
         <v>17.11</v>
       </c>
+      <c r="Z117" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="118" spans="1:26">
       <c r="A118">
@@ -10040,6 +10057,9 @@
       <c r="Y118">
         <v>18.75</v>
       </c>
+      <c r="Z118" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="119" spans="1:26">
       <c r="A119">
@@ -10116,6 +10136,9 @@
       </c>
       <c r="Y119">
         <v>18.010000000000002</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="1:26">
@@ -10194,6 +10217,9 @@
       <c r="Y120">
         <v>17.399999999999999</v>
       </c>
+      <c r="Z120" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="121" spans="1:26">
       <c r="A121">
@@ -10271,6 +10297,9 @@
       <c r="Y121">
         <v>18.600000000000001</v>
       </c>
+      <c r="Z121" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="122" spans="1:26">
       <c r="A122">
@@ -10348,6 +10377,9 @@
       <c r="Y122">
         <v>20.34</v>
       </c>
+      <c r="Z122" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="123" spans="1:26">
       <c r="A123">
@@ -10425,6 +10457,9 @@
       <c r="Y123">
         <v>21.84</v>
       </c>
+      <c r="Z123" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="124" spans="1:26">
       <c r="A124">
@@ -10502,6 +10537,9 @@
       <c r="Y124">
         <v>20.73</v>
       </c>
+      <c r="Z124" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="125" spans="1:26">
       <c r="A125">
@@ -10579,6 +10617,9 @@
       <c r="Y125">
         <v>18.53</v>
       </c>
+      <c r="Z125" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="126" spans="1:26">
       <c r="A126">
@@ -10656,6 +10697,9 @@
       <c r="Y126">
         <v>14.68</v>
       </c>
+      <c r="Z126" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="127" spans="1:26">
       <c r="A127">
@@ -10733,7 +10777,9 @@
       <c r="Y127">
         <v>17.38</v>
       </c>
-      <c r="Z127" s="3"/>
+      <c r="Z127" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="128" spans="1:26">
       <c r="A128">
@@ -10811,6 +10857,9 @@
       <c r="Y128">
         <v>16.5</v>
       </c>
+      <c r="Z128" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="129" spans="1:26">
       <c r="A129">
@@ -10888,6 +10937,9 @@
       <c r="Y129">
         <v>17.899999999999999</v>
       </c>
+      <c r="Z129" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="130" spans="1:26">
       <c r="A130">
@@ -10965,6 +11017,9 @@
       <c r="Y130">
         <v>14.8</v>
       </c>
+      <c r="Z130" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="131" spans="1:26">
       <c r="A131">
@@ -11042,1625 +11097,1636 @@
       <c r="Y131">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:26" s="3" customFormat="1">
-      <c r="A132" s="3">
-        <v>0</v>
-      </c>
-      <c r="B132" s="3">
-        <v>0</v>
-      </c>
-      <c r="C132" s="3">
+      <c r="Z131" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" s="11" customFormat="1">
+      <c r="A132" s="11">
+        <v>0</v>
+      </c>
+      <c r="B132" s="11">
+        <v>0</v>
+      </c>
+      <c r="C132" s="11">
         <v>1.1020000000000001</v>
       </c>
-      <c r="D132" s="3">
-        <v>0</v>
-      </c>
-      <c r="E132" s="3">
+      <c r="D132" s="11">
+        <v>0</v>
+      </c>
+      <c r="E132" s="11">
         <v>0.34799999999999998</v>
       </c>
-      <c r="F132" s="3">
-        <v>0</v>
-      </c>
-      <c r="G132" s="3">
-        <v>0</v>
-      </c>
-      <c r="H132" s="3">
+      <c r="F132" s="11">
+        <v>0</v>
+      </c>
+      <c r="G132" s="11">
+        <v>0</v>
+      </c>
+      <c r="H132" s="11">
         <v>1.45</v>
       </c>
-      <c r="I132" s="3">
-        <v>0</v>
-      </c>
-      <c r="J132" s="3">
-        <v>0</v>
-      </c>
-      <c r="K132" s="3">
-        <v>0</v>
-      </c>
-      <c r="L132" s="3">
-        <v>0</v>
-      </c>
-      <c r="M132" s="3">
-        <v>0</v>
-      </c>
-      <c r="N132" s="3">
-        <v>0</v>
-      </c>
-      <c r="O132" s="3">
-        <v>0</v>
-      </c>
-      <c r="P132" s="3">
+      <c r="I132" s="11">
+        <v>0</v>
+      </c>
+      <c r="J132" s="11">
+        <v>0</v>
+      </c>
+      <c r="K132" s="11">
+        <v>0</v>
+      </c>
+      <c r="L132" s="11">
+        <v>0</v>
+      </c>
+      <c r="M132" s="11">
+        <v>0</v>
+      </c>
+      <c r="N132" s="11">
+        <v>0</v>
+      </c>
+      <c r="O132" s="11">
+        <v>0</v>
+      </c>
+      <c r="P132" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q132" s="3">
+      <c r="Q132" s="11">
         <v>0.2</v>
       </c>
-      <c r="R132" s="3">
-        <v>0</v>
-      </c>
-      <c r="S132" s="3">
+      <c r="R132" s="11">
+        <v>0</v>
+      </c>
+      <c r="S132" s="11">
         <v>2.7</v>
       </c>
-      <c r="T132" s="3">
+      <c r="T132" s="11">
         <v>1.5</v>
       </c>
-      <c r="U132" s="3">
+      <c r="U132" s="11">
         <v>8</v>
       </c>
-      <c r="V132" s="3">
+      <c r="V132" s="11">
         <v>5</v>
       </c>
-      <c r="W132" s="3">
-        <v>1</v>
-      </c>
-      <c r="X132" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y132" s="3">
+      <c r="W132" s="11">
+        <v>1</v>
+      </c>
+      <c r="X132" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="11">
         <v>13.5</v>
       </c>
-      <c r="Z132"/>
-    </row>
-    <row r="133" spans="1:26">
-      <c r="A133">
-        <v>0</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
+      <c r="Z132" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" s="11" customFormat="1">
+      <c r="A133" s="11">
+        <v>0</v>
+      </c>
+      <c r="B133" s="11">
+        <v>0</v>
+      </c>
+      <c r="C133" s="11">
+        <v>1</v>
+      </c>
+      <c r="D133" s="11">
+        <v>0</v>
+      </c>
+      <c r="E133" s="11">
         <v>0.45</v>
       </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
+      <c r="F133" s="11">
+        <v>0</v>
+      </c>
+      <c r="G133" s="11">
+        <v>0</v>
+      </c>
+      <c r="H133" s="11">
         <v>1.45</v>
       </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <v>0</v>
-      </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133">
+      <c r="I133" s="11">
+        <v>0</v>
+      </c>
+      <c r="J133" s="11">
+        <v>0</v>
+      </c>
+      <c r="K133" s="11">
+        <v>0</v>
+      </c>
+      <c r="L133" s="11">
+        <v>0</v>
+      </c>
+      <c r="M133" s="11">
+        <v>0</v>
+      </c>
+      <c r="N133" s="11">
+        <v>0</v>
+      </c>
+      <c r="O133" s="11">
+        <v>0</v>
+      </c>
+      <c r="P133" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q133">
+      <c r="Q133" s="11">
         <v>0.2</v>
       </c>
-      <c r="R133">
-        <v>0</v>
-      </c>
-      <c r="S133">
+      <c r="R133" s="11">
+        <v>0</v>
+      </c>
+      <c r="S133" s="11">
         <v>2.7</v>
       </c>
-      <c r="T133">
+      <c r="T133" s="11">
         <v>1.5</v>
       </c>
-      <c r="U133">
+      <c r="U133" s="11">
         <v>8</v>
       </c>
-      <c r="V133">
+      <c r="V133" s="11">
         <v>5</v>
       </c>
-      <c r="W133">
-        <v>1</v>
-      </c>
-      <c r="X133">
-        <v>0</v>
-      </c>
-      <c r="Y133">
+      <c r="W133" s="11">
+        <v>1</v>
+      </c>
+      <c r="X133" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="11">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:26">
-      <c r="A134">
-        <v>0</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134">
+      <c r="Z133" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" s="11" customFormat="1">
+      <c r="A134" s="11">
+        <v>0</v>
+      </c>
+      <c r="B134" s="11">
+        <v>0</v>
+      </c>
+      <c r="C134" s="11">
         <v>1.125</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
+      <c r="E134" s="11">
+        <v>0</v>
+      </c>
+      <c r="F134" s="11">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
+      <c r="G134" s="11">
+        <v>0</v>
+      </c>
+      <c r="H134" s="11">
         <v>1.2373000000000001</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="11">
         <v>0.25</v>
       </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-      <c r="N134">
-        <v>0</v>
-      </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="P134">
+      <c r="J134" s="11">
+        <v>0</v>
+      </c>
+      <c r="K134" s="11">
+        <v>0</v>
+      </c>
+      <c r="L134" s="11">
+        <v>0</v>
+      </c>
+      <c r="M134" s="11">
+        <v>0</v>
+      </c>
+      <c r="N134" s="11">
+        <v>0</v>
+      </c>
+      <c r="O134" s="11">
+        <v>0</v>
+      </c>
+      <c r="P134" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q134">
+      <c r="Q134" s="11">
         <v>0.2</v>
       </c>
-      <c r="R134">
-        <v>0</v>
-      </c>
-      <c r="S134">
+      <c r="R134" s="11">
+        <v>0</v>
+      </c>
+      <c r="S134" s="11">
         <v>2.7</v>
       </c>
-      <c r="T134">
-        <v>1</v>
-      </c>
-      <c r="U134">
+      <c r="T134" s="11">
+        <v>1</v>
+      </c>
+      <c r="U134" s="11">
         <v>2</v>
       </c>
-      <c r="V134">
+      <c r="V134" s="11">
         <v>4</v>
       </c>
-      <c r="W134">
-        <v>0</v>
-      </c>
-      <c r="X134">
-        <v>0</v>
-      </c>
-      <c r="Y134">
+      <c r="W134" s="11">
+        <v>0</v>
+      </c>
+      <c r="X134" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="11">
         <v>17.48</v>
       </c>
     </row>
-    <row r="135" spans="1:26">
-      <c r="A135">
-        <v>0</v>
-      </c>
-      <c r="B135">
+    <row r="135" spans="1:26" s="11" customFormat="1">
+      <c r="A135" s="11">
+        <v>0</v>
+      </c>
+      <c r="B135" s="11">
         <v>1.35</v>
       </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
+      <c r="C135" s="11">
+        <v>0</v>
+      </c>
+      <c r="D135" s="11">
+        <v>0</v>
+      </c>
+      <c r="E135" s="11">
+        <v>0</v>
+      </c>
+      <c r="F135" s="11">
+        <v>0</v>
+      </c>
+      <c r="G135" s="11">
+        <v>0</v>
+      </c>
+      <c r="H135" s="11">
         <v>1.35</v>
       </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-      <c r="N135">
-        <v>0</v>
-      </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135">
+      <c r="I135" s="11">
+        <v>0</v>
+      </c>
+      <c r="J135" s="11">
+        <v>0</v>
+      </c>
+      <c r="K135" s="11">
+        <v>0</v>
+      </c>
+      <c r="L135" s="11">
+        <v>0</v>
+      </c>
+      <c r="M135" s="11">
+        <v>0</v>
+      </c>
+      <c r="N135" s="11">
+        <v>0</v>
+      </c>
+      <c r="O135" s="11">
+        <v>0</v>
+      </c>
+      <c r="P135" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q135">
+      <c r="Q135" s="11">
         <v>0.2</v>
       </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
-      <c r="S135">
+      <c r="R135" s="11">
+        <v>0</v>
+      </c>
+      <c r="S135" s="11">
         <v>2.7</v>
       </c>
-      <c r="T135">
-        <v>1</v>
-      </c>
-      <c r="U135">
+      <c r="T135" s="11">
+        <v>1</v>
+      </c>
+      <c r="U135" s="11">
         <v>2</v>
       </c>
-      <c r="V135">
+      <c r="V135" s="11">
         <v>4</v>
       </c>
-      <c r="W135">
-        <v>0</v>
-      </c>
-      <c r="X135">
-        <v>0</v>
-      </c>
-      <c r="Y135">
+      <c r="W135" s="11">
+        <v>0</v>
+      </c>
+      <c r="X135" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="11">
         <v>14.08</v>
       </c>
     </row>
-    <row r="136" spans="1:26">
-      <c r="A136">
-        <v>0</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
+    <row r="136" spans="1:26" s="11" customFormat="1">
+      <c r="A136" s="11">
+        <v>0</v>
+      </c>
+      <c r="B136" s="11">
+        <v>0</v>
+      </c>
+      <c r="C136" s="11">
         <v>1.04</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="11">
         <v>0.105</v>
       </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
+      <c r="E136" s="11">
+        <v>0</v>
+      </c>
+      <c r="F136" s="11">
         <v>0.155</v>
       </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
+      <c r="G136" s="11">
+        <v>0</v>
+      </c>
+      <c r="H136" s="11">
         <v>1.19</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="11">
         <v>0.155</v>
       </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <v>0</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136">
+      <c r="J136" s="11">
+        <v>0</v>
+      </c>
+      <c r="K136" s="11">
+        <v>0</v>
+      </c>
+      <c r="L136" s="11">
+        <v>0</v>
+      </c>
+      <c r="M136" s="11">
+        <v>0</v>
+      </c>
+      <c r="N136" s="11">
+        <v>0</v>
+      </c>
+      <c r="O136" s="11">
+        <v>0</v>
+      </c>
+      <c r="P136" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q136">
+      <c r="Q136" s="11">
         <v>0.2</v>
       </c>
-      <c r="R136">
-        <v>0</v>
-      </c>
-      <c r="S136">
+      <c r="R136" s="11">
+        <v>0</v>
+      </c>
+      <c r="S136" s="11">
         <v>2.7</v>
       </c>
-      <c r="T136">
-        <v>1</v>
-      </c>
-      <c r="U136" s="5">
+      <c r="T136" s="11">
+        <v>1</v>
+      </c>
+      <c r="U136" s="11">
         <v>2</v>
       </c>
-      <c r="V136">
+      <c r="V136" s="11">
         <v>4</v>
       </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-      <c r="X136">
-        <v>0</v>
-      </c>
-      <c r="Y136">
+      <c r="W136" s="11">
+        <v>0</v>
+      </c>
+      <c r="X136" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="11">
         <v>19.510000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:26">
-      <c r="A137">
-        <v>0</v>
-      </c>
-      <c r="B137">
+    <row r="137" spans="1:26" s="11" customFormat="1">
+      <c r="A137" s="11">
+        <v>0</v>
+      </c>
+      <c r="B137" s="11">
         <v>0.96</v>
       </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
+      <c r="C137" s="11">
+        <v>0</v>
+      </c>
+      <c r="D137" s="11">
+        <v>0</v>
+      </c>
+      <c r="E137" s="11">
+        <v>0</v>
+      </c>
+      <c r="F137" s="11">
+        <v>0</v>
+      </c>
+      <c r="G137" s="11">
+        <v>0</v>
+      </c>
+      <c r="H137" s="11">
         <v>0.96</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>0</v>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-      <c r="Q137">
+      <c r="I137" s="11">
+        <v>0</v>
+      </c>
+      <c r="J137" s="11">
+        <v>0</v>
+      </c>
+      <c r="K137" s="11">
+        <v>0</v>
+      </c>
+      <c r="L137" s="11">
+        <v>0</v>
+      </c>
+      <c r="M137" s="11">
+        <v>0</v>
+      </c>
+      <c r="N137" s="11">
+        <v>0</v>
+      </c>
+      <c r="O137" s="11">
+        <v>0</v>
+      </c>
+      <c r="P137" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="11">
         <v>0.3</v>
       </c>
-      <c r="R137">
+      <c r="R137" s="11">
         <v>0.7</v>
       </c>
-      <c r="S137">
+      <c r="S137" s="11">
         <v>2.7</v>
       </c>
-      <c r="T137" s="5">
+      <c r="T137" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U137">
+      <c r="U137" s="11">
         <v>2</v>
       </c>
-      <c r="V137">
+      <c r="V137" s="11">
         <v>4</v>
       </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-      <c r="X137">
-        <v>0</v>
-      </c>
-      <c r="Y137">
+      <c r="W137" s="11">
+        <v>0</v>
+      </c>
+      <c r="X137" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="11">
         <v>14.5</v>
       </c>
     </row>
-    <row r="138" spans="1:26">
-      <c r="A138">
-        <v>0</v>
-      </c>
-      <c r="B138">
+    <row r="138" spans="1:26" s="11" customFormat="1">
+      <c r="A138" s="11">
+        <v>0</v>
+      </c>
+      <c r="B138" s="11">
         <v>0.91200000000000003</v>
       </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
+      <c r="C138" s="11">
+        <v>0</v>
+      </c>
+      <c r="D138" s="11">
+        <v>0</v>
+      </c>
+      <c r="E138" s="11">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
+      <c r="F138" s="11">
+        <v>0</v>
+      </c>
+      <c r="G138" s="11">
+        <v>0</v>
+      </c>
+      <c r="H138" s="11">
         <v>0.91200000000000003</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="11">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <v>0</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-      <c r="Q138">
+      <c r="J138" s="11">
+        <v>0</v>
+      </c>
+      <c r="K138" s="11">
+        <v>0</v>
+      </c>
+      <c r="L138" s="11">
+        <v>0</v>
+      </c>
+      <c r="M138" s="11">
+        <v>0</v>
+      </c>
+      <c r="N138" s="11">
+        <v>0</v>
+      </c>
+      <c r="O138" s="11">
+        <v>0</v>
+      </c>
+      <c r="P138" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="11">
         <v>0.3</v>
       </c>
-      <c r="R138">
+      <c r="R138" s="11">
         <v>0.7</v>
       </c>
-      <c r="S138">
+      <c r="S138" s="11">
         <v>2.7</v>
       </c>
-      <c r="T138" s="5">
+      <c r="T138" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U138">
+      <c r="U138" s="11">
         <v>2</v>
       </c>
-      <c r="V138">
+      <c r="V138" s="11">
         <v>4</v>
       </c>
-      <c r="W138">
-        <v>0</v>
-      </c>
-      <c r="X138">
-        <v>0</v>
-      </c>
-      <c r="Y138">
+      <c r="W138" s="11">
+        <v>0</v>
+      </c>
+      <c r="X138" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y138" s="11">
         <v>14.9</v>
       </c>
     </row>
-    <row r="139" spans="1:26">
-      <c r="A139">
-        <v>0</v>
-      </c>
-      <c r="B139">
+    <row r="139" spans="1:26" s="11" customFormat="1">
+      <c r="A139" s="11">
+        <v>0</v>
+      </c>
+      <c r="B139" s="11">
         <v>0.753</v>
       </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
+      <c r="C139" s="11">
+        <v>0</v>
+      </c>
+      <c r="D139" s="11">
+        <v>0</v>
+      </c>
+      <c r="E139" s="11">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
+      <c r="F139" s="11">
+        <v>0</v>
+      </c>
+      <c r="G139" s="11">
+        <v>0</v>
+      </c>
+      <c r="H139" s="11">
         <v>0.753</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="11">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
-      </c>
-      <c r="N139">
-        <v>0</v>
-      </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-      <c r="Q139">
+      <c r="J139" s="11">
+        <v>0</v>
+      </c>
+      <c r="K139" s="11">
+        <v>0</v>
+      </c>
+      <c r="L139" s="11">
+        <v>0</v>
+      </c>
+      <c r="M139" s="11">
+        <v>0</v>
+      </c>
+      <c r="N139" s="11">
+        <v>0</v>
+      </c>
+      <c r="O139" s="11">
+        <v>0</v>
+      </c>
+      <c r="P139" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="11">
         <v>0.3</v>
       </c>
-      <c r="R139">
+      <c r="R139" s="11">
         <v>0.7</v>
       </c>
-      <c r="S139">
+      <c r="S139" s="11">
         <v>2.7</v>
       </c>
-      <c r="T139" s="5">
+      <c r="T139" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U139">
+      <c r="U139" s="11">
         <v>2</v>
       </c>
-      <c r="V139">
+      <c r="V139" s="11">
         <v>4</v>
       </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-      <c r="X139">
-        <v>0</v>
-      </c>
-      <c r="Y139">
+      <c r="W139" s="11">
+        <v>0</v>
+      </c>
+      <c r="X139" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y139" s="11">
         <v>15.9</v>
       </c>
     </row>
-    <row r="140" spans="1:26">
-      <c r="A140">
-        <v>0</v>
-      </c>
-      <c r="B140">
+    <row r="140" spans="1:26" s="11" customFormat="1">
+      <c r="A140" s="11">
+        <v>0</v>
+      </c>
+      <c r="B140" s="11">
         <v>0.67200000000000004</v>
       </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
+      <c r="C140" s="11">
+        <v>0</v>
+      </c>
+      <c r="D140" s="11">
+        <v>0</v>
+      </c>
+      <c r="E140" s="11">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
+      <c r="F140" s="11">
+        <v>0</v>
+      </c>
+      <c r="G140" s="11">
+        <v>0</v>
+      </c>
+      <c r="H140" s="11">
         <v>0.67200000000000004</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="11">
         <v>0.16800000000000001</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-      <c r="M140">
-        <v>0</v>
-      </c>
-      <c r="N140">
-        <v>0</v>
-      </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-      <c r="Q140">
+      <c r="J140" s="11">
+        <v>0</v>
+      </c>
+      <c r="K140" s="11">
+        <v>0</v>
+      </c>
+      <c r="L140" s="11">
+        <v>0</v>
+      </c>
+      <c r="M140" s="11">
+        <v>0</v>
+      </c>
+      <c r="N140" s="11">
+        <v>0</v>
+      </c>
+      <c r="O140" s="11">
+        <v>0</v>
+      </c>
+      <c r="P140" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="11">
         <v>0.3</v>
       </c>
-      <c r="R140">
+      <c r="R140" s="11">
         <v>0.7</v>
       </c>
-      <c r="S140">
+      <c r="S140" s="11">
         <v>2.7</v>
       </c>
-      <c r="T140" s="5">
+      <c r="T140" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U140">
+      <c r="U140" s="11">
         <v>2</v>
       </c>
-      <c r="V140">
+      <c r="V140" s="11">
         <v>4</v>
       </c>
-      <c r="W140">
-        <v>0</v>
-      </c>
-      <c r="X140">
-        <v>0</v>
-      </c>
-      <c r="Y140">
+      <c r="W140" s="11">
+        <v>0</v>
+      </c>
+      <c r="X140" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y140" s="11">
         <v>12.7</v>
       </c>
     </row>
-    <row r="141" spans="1:26">
-      <c r="A141">
-        <v>0</v>
-      </c>
-      <c r="B141">
+    <row r="141" spans="1:26" s="11" customFormat="1">
+      <c r="A141" s="11">
+        <v>0</v>
+      </c>
+      <c r="B141" s="11">
         <v>1.2</v>
       </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
+      <c r="C141" s="11">
+        <v>0</v>
+      </c>
+      <c r="D141" s="11">
+        <v>0</v>
+      </c>
+      <c r="E141" s="11">
+        <v>0</v>
+      </c>
+      <c r="F141" s="11">
+        <v>0</v>
+      </c>
+      <c r="G141" s="11">
+        <v>0</v>
+      </c>
+      <c r="H141" s="11">
         <v>1.2</v>
       </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-      <c r="M141">
-        <v>0</v>
-      </c>
-      <c r="N141">
-        <v>0</v>
-      </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-      <c r="P141">
+      <c r="I141" s="11">
+        <v>0</v>
+      </c>
+      <c r="J141" s="11">
+        <v>0</v>
+      </c>
+      <c r="K141" s="11">
+        <v>0</v>
+      </c>
+      <c r="L141" s="11">
+        <v>0</v>
+      </c>
+      <c r="M141" s="11">
+        <v>0</v>
+      </c>
+      <c r="N141" s="11">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11">
+        <v>0</v>
+      </c>
+      <c r="P141" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q141">
+      <c r="Q141" s="11">
         <v>0.2</v>
       </c>
-      <c r="R141">
-        <v>0</v>
-      </c>
-      <c r="S141">
+      <c r="R141" s="11">
+        <v>0</v>
+      </c>
+      <c r="S141" s="11">
         <v>2.4</v>
       </c>
-      <c r="T141">
-        <v>1</v>
-      </c>
-      <c r="U141">
+      <c r="T141" s="11">
+        <v>1</v>
+      </c>
+      <c r="U141" s="11">
         <v>3</v>
       </c>
-      <c r="V141">
+      <c r="V141" s="11">
         <v>5</v>
       </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-      <c r="X141">
+      <c r="W141" s="11">
+        <v>0</v>
+      </c>
+      <c r="X141" s="11">
         <v>2</v>
       </c>
-      <c r="Y141">
+      <c r="Y141" s="11">
         <v>15.11</v>
       </c>
     </row>
-    <row r="142" spans="1:26">
-      <c r="A142">
-        <v>0</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142">
-        <v>0</v>
-      </c>
-      <c r="N142">
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142">
-        <v>1</v>
-      </c>
-      <c r="Q142">
-        <v>0</v>
-      </c>
-      <c r="R142">
-        <v>0</v>
-      </c>
-      <c r="S142">
+    <row r="142" spans="1:26" s="11" customFormat="1">
+      <c r="A142" s="11">
+        <v>0</v>
+      </c>
+      <c r="B142" s="11">
+        <v>0</v>
+      </c>
+      <c r="C142" s="11">
+        <v>0</v>
+      </c>
+      <c r="D142" s="11">
+        <v>1</v>
+      </c>
+      <c r="E142" s="11">
+        <v>0</v>
+      </c>
+      <c r="F142" s="11">
+        <v>0</v>
+      </c>
+      <c r="G142" s="11">
+        <v>0</v>
+      </c>
+      <c r="H142" s="11">
+        <v>1</v>
+      </c>
+      <c r="I142" s="11">
+        <v>0</v>
+      </c>
+      <c r="J142" s="11">
+        <v>0</v>
+      </c>
+      <c r="K142" s="11">
+        <v>0</v>
+      </c>
+      <c r="L142" s="11">
+        <v>0</v>
+      </c>
+      <c r="M142" s="11">
+        <v>0</v>
+      </c>
+      <c r="N142" s="11">
+        <v>0</v>
+      </c>
+      <c r="O142" s="11">
+        <v>0</v>
+      </c>
+      <c r="P142" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="11">
+        <v>0</v>
+      </c>
+      <c r="R142" s="11">
+        <v>0</v>
+      </c>
+      <c r="S142" s="11">
         <v>3.8</v>
       </c>
-      <c r="T142">
+      <c r="T142" s="11">
         <v>3.3</v>
       </c>
-      <c r="U142">
-        <v>1</v>
-      </c>
-      <c r="V142">
+      <c r="U142" s="11">
+        <v>1</v>
+      </c>
+      <c r="V142" s="11">
         <v>9</v>
       </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="X142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
+      <c r="W142" s="11">
+        <v>0</v>
+      </c>
+      <c r="X142" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="11">
         <v>8.9</v>
       </c>
     </row>
-    <row r="143" spans="1:26">
-      <c r="A143">
-        <v>0</v>
-      </c>
-      <c r="B143">
+    <row r="143" spans="1:26" s="11" customFormat="1">
+      <c r="A143" s="11">
+        <v>0</v>
+      </c>
+      <c r="B143" s="11">
         <v>0.5</v>
       </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>0</v>
-      </c>
-      <c r="N143">
-        <v>0</v>
-      </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-      <c r="P143">
-        <v>1</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-      <c r="R143">
-        <v>0</v>
-      </c>
-      <c r="S143">
+      <c r="C143" s="11">
+        <v>0</v>
+      </c>
+      <c r="D143" s="11">
+        <v>1</v>
+      </c>
+      <c r="E143" s="11">
+        <v>0</v>
+      </c>
+      <c r="F143" s="11">
+        <v>0</v>
+      </c>
+      <c r="G143" s="11">
+        <v>0</v>
+      </c>
+      <c r="H143" s="11">
+        <v>1</v>
+      </c>
+      <c r="I143" s="11">
+        <v>0</v>
+      </c>
+      <c r="J143" s="11">
+        <v>0</v>
+      </c>
+      <c r="K143" s="11">
+        <v>0</v>
+      </c>
+      <c r="L143" s="11">
+        <v>0</v>
+      </c>
+      <c r="M143" s="11">
+        <v>0</v>
+      </c>
+      <c r="N143" s="11">
+        <v>0</v>
+      </c>
+      <c r="O143" s="11">
+        <v>0</v>
+      </c>
+      <c r="P143" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="11">
+        <v>0</v>
+      </c>
+      <c r="R143" s="11">
+        <v>0</v>
+      </c>
+      <c r="S143" s="11">
         <v>3.8</v>
       </c>
-      <c r="T143">
+      <c r="T143" s="11">
         <v>3.3</v>
       </c>
-      <c r="U143">
-        <v>1</v>
-      </c>
-      <c r="V143">
+      <c r="U143" s="11">
+        <v>1</v>
+      </c>
+      <c r="V143" s="11">
         <v>9</v>
       </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-      <c r="X143">
-        <v>0</v>
-      </c>
-      <c r="Y143">
+      <c r="W143" s="11">
+        <v>0</v>
+      </c>
+      <c r="X143" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="11">
         <v>11.6</v>
       </c>
     </row>
-    <row r="144" spans="1:26">
-      <c r="A144">
-        <v>0</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <v>0</v>
-      </c>
-      <c r="N144">
-        <v>0</v>
-      </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-      <c r="P144">
-        <v>1</v>
-      </c>
-      <c r="Q144">
-        <v>0</v>
-      </c>
-      <c r="R144">
-        <v>0</v>
-      </c>
-      <c r="S144">
+    <row r="144" spans="1:26" s="11" customFormat="1">
+      <c r="A144" s="11">
+        <v>0</v>
+      </c>
+      <c r="B144" s="11">
+        <v>1</v>
+      </c>
+      <c r="C144" s="11">
+        <v>0</v>
+      </c>
+      <c r="D144" s="11">
+        <v>1</v>
+      </c>
+      <c r="E144" s="11">
+        <v>0</v>
+      </c>
+      <c r="F144" s="11">
+        <v>0</v>
+      </c>
+      <c r="G144" s="11">
+        <v>0</v>
+      </c>
+      <c r="H144" s="11">
+        <v>1</v>
+      </c>
+      <c r="I144" s="11">
+        <v>0</v>
+      </c>
+      <c r="J144" s="11">
+        <v>0</v>
+      </c>
+      <c r="K144" s="11">
+        <v>0</v>
+      </c>
+      <c r="L144" s="11">
+        <v>0</v>
+      </c>
+      <c r="M144" s="11">
+        <v>0</v>
+      </c>
+      <c r="N144" s="11">
+        <v>0</v>
+      </c>
+      <c r="O144" s="11">
+        <v>0</v>
+      </c>
+      <c r="P144" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="11">
+        <v>0</v>
+      </c>
+      <c r="R144" s="11">
+        <v>0</v>
+      </c>
+      <c r="S144" s="11">
         <v>3.8</v>
       </c>
-      <c r="T144">
+      <c r="T144" s="11">
         <v>3.3</v>
       </c>
-      <c r="U144">
-        <v>1</v>
-      </c>
-      <c r="V144">
+      <c r="U144" s="11">
+        <v>1</v>
+      </c>
+      <c r="V144" s="11">
         <v>9</v>
       </c>
-      <c r="W144">
-        <v>0</v>
-      </c>
-      <c r="X144">
-        <v>0</v>
-      </c>
-      <c r="Y144">
+      <c r="W144" s="11">
+        <v>0</v>
+      </c>
+      <c r="X144" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="11">
         <v>14.1</v>
       </c>
     </row>
-    <row r="145" spans="1:25">
-      <c r="A145">
-        <v>0</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145">
+    <row r="145" spans="1:25" s="11" customFormat="1">
+      <c r="A145" s="11">
+        <v>0</v>
+      </c>
+      <c r="B145" s="11">
+        <v>0</v>
+      </c>
+      <c r="C145" s="11">
         <v>0.9</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="11">
         <v>0.1</v>
       </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
+      <c r="E145" s="11">
+        <v>0</v>
+      </c>
+      <c r="F145" s="11">
+        <v>0</v>
+      </c>
+      <c r="G145" s="11">
+        <v>0</v>
+      </c>
+      <c r="H145" s="11">
         <v>1.05</v>
       </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
-      <c r="N145">
-        <v>0</v>
-      </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-      <c r="P145">
+      <c r="I145" s="11">
+        <v>0</v>
+      </c>
+      <c r="J145" s="11">
+        <v>0</v>
+      </c>
+      <c r="K145" s="11">
+        <v>0</v>
+      </c>
+      <c r="L145" s="11">
+        <v>0</v>
+      </c>
+      <c r="M145" s="11">
+        <v>0</v>
+      </c>
+      <c r="N145" s="11">
+        <v>0</v>
+      </c>
+      <c r="O145" s="11">
+        <v>0</v>
+      </c>
+      <c r="P145" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q145">
+      <c r="Q145" s="11">
         <v>0.2</v>
       </c>
-      <c r="R145">
-        <v>0</v>
-      </c>
-      <c r="S145">
+      <c r="R145" s="11">
+        <v>0</v>
+      </c>
+      <c r="S145" s="11">
         <v>2.7</v>
       </c>
-      <c r="T145">
+      <c r="T145" s="11">
         <v>1.4</v>
       </c>
-      <c r="U145">
+      <c r="U145" s="11">
         <v>8</v>
       </c>
-      <c r="V145">
+      <c r="V145" s="11">
         <v>4</v>
       </c>
-      <c r="W145">
-        <v>1</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
-      </c>
-      <c r="Y145">
+      <c r="W145" s="11">
+        <v>1</v>
+      </c>
+      <c r="X145" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="11">
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:25">
-      <c r="A146">
-        <v>0</v>
-      </c>
-      <c r="B146">
+    <row r="146" spans="1:25" s="11" customFormat="1">
+      <c r="A146" s="11">
+        <v>0</v>
+      </c>
+      <c r="B146" s="11">
         <v>1.2</v>
       </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
+      <c r="C146" s="11">
+        <v>0</v>
+      </c>
+      <c r="D146" s="11">
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
+        <v>0</v>
+      </c>
+      <c r="F146" s="11">
+        <v>0</v>
+      </c>
+      <c r="G146" s="11">
+        <v>0</v>
+      </c>
+      <c r="H146" s="11">
         <v>1.2</v>
       </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <v>0</v>
-      </c>
-      <c r="N146">
-        <v>0</v>
-      </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-      <c r="P146">
+      <c r="I146" s="11">
+        <v>0</v>
+      </c>
+      <c r="J146" s="11">
+        <v>0</v>
+      </c>
+      <c r="K146" s="11">
+        <v>0</v>
+      </c>
+      <c r="L146" s="11">
+        <v>0</v>
+      </c>
+      <c r="M146" s="11">
+        <v>0</v>
+      </c>
+      <c r="N146" s="11">
+        <v>0</v>
+      </c>
+      <c r="O146" s="11">
+        <v>0</v>
+      </c>
+      <c r="P146" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q146">
+      <c r="Q146" s="11">
         <v>0.2</v>
       </c>
-      <c r="R146">
-        <v>0</v>
-      </c>
-      <c r="S146">
+      <c r="R146" s="11">
+        <v>0</v>
+      </c>
+      <c r="S146" s="11">
         <v>2.4</v>
       </c>
-      <c r="T146">
-        <v>1</v>
-      </c>
-      <c r="U146">
+      <c r="T146" s="11">
+        <v>1</v>
+      </c>
+      <c r="U146" s="11">
         <v>3</v>
       </c>
-      <c r="V146">
+      <c r="V146" s="11">
         <v>5</v>
       </c>
-      <c r="W146">
-        <v>0</v>
-      </c>
-      <c r="X146">
+      <c r="W146" s="11">
+        <v>0</v>
+      </c>
+      <c r="X146" s="11">
         <v>2</v>
       </c>
-      <c r="Y146">
+      <c r="Y146" s="11">
         <v>15.11</v>
       </c>
     </row>
-    <row r="147" spans="1:25">
-      <c r="A147">
+    <row r="147" spans="1:25" s="11" customFormat="1">
+      <c r="A147" s="11">
         <v>2</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="11">
         <v>1.2</v>
       </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
+      <c r="C147" s="11">
+        <v>0</v>
+      </c>
+      <c r="D147" s="11">
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
+        <v>0</v>
+      </c>
+      <c r="F147" s="11">
+        <v>0</v>
+      </c>
+      <c r="G147" s="11">
+        <v>0</v>
+      </c>
+      <c r="H147" s="11">
         <v>1.2</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-      <c r="M147">
-        <v>0</v>
-      </c>
-      <c r="N147">
-        <v>0</v>
-      </c>
-      <c r="O147">
-        <v>0</v>
-      </c>
-      <c r="P147">
+      <c r="I147" s="11">
+        <v>0</v>
+      </c>
+      <c r="J147" s="11">
+        <v>0</v>
+      </c>
+      <c r="K147" s="11">
+        <v>0</v>
+      </c>
+      <c r="L147" s="11">
+        <v>0</v>
+      </c>
+      <c r="M147" s="11">
+        <v>0</v>
+      </c>
+      <c r="N147" s="11">
+        <v>0</v>
+      </c>
+      <c r="O147" s="11">
+        <v>0</v>
+      </c>
+      <c r="P147" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q147">
+      <c r="Q147" s="11">
         <v>0.2</v>
       </c>
-      <c r="R147">
-        <v>0</v>
-      </c>
-      <c r="S147">
+      <c r="R147" s="11">
+        <v>0</v>
+      </c>
+      <c r="S147" s="11">
         <v>2.4</v>
       </c>
-      <c r="T147">
-        <v>1</v>
-      </c>
-      <c r="U147">
+      <c r="T147" s="11">
+        <v>1</v>
+      </c>
+      <c r="U147" s="11">
         <v>3</v>
       </c>
-      <c r="V147">
+      <c r="V147" s="11">
         <v>5</v>
       </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-      <c r="X147">
+      <c r="W147" s="11">
+        <v>0</v>
+      </c>
+      <c r="X147" s="11">
         <v>2</v>
       </c>
-      <c r="Y147">
+      <c r="Y147" s="11">
         <v>15.86</v>
       </c>
     </row>
-    <row r="148" spans="1:25">
-      <c r="A148">
+    <row r="148" spans="1:25" s="11" customFormat="1">
+      <c r="A148" s="11">
         <v>4</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="11">
         <v>1.2</v>
       </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
+      <c r="C148" s="11">
+        <v>0</v>
+      </c>
+      <c r="D148" s="11">
+        <v>0</v>
+      </c>
+      <c r="E148" s="11">
+        <v>0</v>
+      </c>
+      <c r="F148" s="11">
+        <v>0</v>
+      </c>
+      <c r="G148" s="11">
+        <v>0</v>
+      </c>
+      <c r="H148" s="11">
         <v>1.2</v>
       </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-      <c r="M148">
-        <v>0</v>
-      </c>
-      <c r="N148">
-        <v>0</v>
-      </c>
-      <c r="O148">
-        <v>0</v>
-      </c>
-      <c r="P148">
+      <c r="I148" s="11">
+        <v>0</v>
+      </c>
+      <c r="J148" s="11">
+        <v>0</v>
+      </c>
+      <c r="K148" s="11">
+        <v>0</v>
+      </c>
+      <c r="L148" s="11">
+        <v>0</v>
+      </c>
+      <c r="M148" s="11">
+        <v>0</v>
+      </c>
+      <c r="N148" s="11">
+        <v>0</v>
+      </c>
+      <c r="O148" s="11">
+        <v>0</v>
+      </c>
+      <c r="P148" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q148">
+      <c r="Q148" s="11">
         <v>0.2</v>
       </c>
-      <c r="R148">
-        <v>0</v>
-      </c>
-      <c r="S148">
+      <c r="R148" s="11">
+        <v>0</v>
+      </c>
+      <c r="S148" s="11">
         <v>2.4</v>
       </c>
-      <c r="T148">
-        <v>1</v>
-      </c>
-      <c r="U148">
+      <c r="T148" s="11">
+        <v>1</v>
+      </c>
+      <c r="U148" s="11">
         <v>3</v>
       </c>
-      <c r="V148">
+      <c r="V148" s="11">
         <v>5</v>
       </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-      <c r="X148">
+      <c r="W148" s="11">
+        <v>0</v>
+      </c>
+      <c r="X148" s="11">
         <v>2</v>
       </c>
-      <c r="Y148">
+      <c r="Y148" s="11">
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:25">
-      <c r="A149">
+    <row r="149" spans="1:25" s="11" customFormat="1">
+      <c r="A149" s="11">
         <v>6</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="11">
         <v>1.2</v>
       </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
+      <c r="C149" s="11">
+        <v>0</v>
+      </c>
+      <c r="D149" s="11">
+        <v>0</v>
+      </c>
+      <c r="E149" s="11">
+        <v>0</v>
+      </c>
+      <c r="F149" s="11">
+        <v>0</v>
+      </c>
+      <c r="G149" s="11">
+        <v>0</v>
+      </c>
+      <c r="H149" s="11">
         <v>1.2</v>
       </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149">
-        <v>0</v>
-      </c>
-      <c r="N149">
-        <v>0</v>
-      </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-      <c r="P149">
+      <c r="I149" s="11">
+        <v>0</v>
+      </c>
+      <c r="J149" s="11">
+        <v>0</v>
+      </c>
+      <c r="K149" s="11">
+        <v>0</v>
+      </c>
+      <c r="L149" s="11">
+        <v>0</v>
+      </c>
+      <c r="M149" s="11">
+        <v>0</v>
+      </c>
+      <c r="N149" s="11">
+        <v>0</v>
+      </c>
+      <c r="O149" s="11">
+        <v>0</v>
+      </c>
+      <c r="P149" s="11">
         <v>0.8</v>
       </c>
-      <c r="Q149">
+      <c r="Q149" s="11">
         <v>0.2</v>
       </c>
-      <c r="R149">
-        <v>0</v>
-      </c>
-      <c r="S149">
+      <c r="R149" s="11">
+        <v>0</v>
+      </c>
+      <c r="S149" s="11">
         <v>2.4</v>
       </c>
-      <c r="T149">
-        <v>1</v>
-      </c>
-      <c r="U149">
+      <c r="T149" s="11">
+        <v>1</v>
+      </c>
+      <c r="U149" s="11">
         <v>3</v>
       </c>
-      <c r="V149">
+      <c r="V149" s="11">
         <v>5</v>
       </c>
-      <c r="W149">
-        <v>0</v>
-      </c>
-      <c r="X149">
+      <c r="W149" s="11">
+        <v>0</v>
+      </c>
+      <c r="X149" s="11">
         <v>2</v>
       </c>
-      <c r="Y149">
+      <c r="Y149" s="11">
         <v>15.32</v>
       </c>
     </row>
-    <row r="150" spans="1:25">
-      <c r="A150">
-        <v>0</v>
-      </c>
-      <c r="B150">
+    <row r="150" spans="1:25" s="11" customFormat="1">
+      <c r="A150" s="11">
+        <v>0</v>
+      </c>
+      <c r="B150" s="11">
         <v>1.5</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
+      <c r="C150" s="11">
+        <v>0</v>
+      </c>
+      <c r="D150" s="11">
+        <v>0</v>
+      </c>
+      <c r="E150" s="11">
+        <v>0</v>
+      </c>
+      <c r="F150" s="11">
+        <v>0</v>
+      </c>
+      <c r="G150" s="11">
+        <v>0</v>
+      </c>
+      <c r="H150" s="11">
         <v>1.5</v>
       </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-      <c r="N150">
-        <v>0</v>
-      </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-      <c r="P150">
+      <c r="I150" s="11">
+        <v>0</v>
+      </c>
+      <c r="J150" s="11">
+        <v>0</v>
+      </c>
+      <c r="K150" s="11">
+        <v>0</v>
+      </c>
+      <c r="L150" s="11">
+        <v>0</v>
+      </c>
+      <c r="M150" s="11">
+        <v>0</v>
+      </c>
+      <c r="N150" s="11">
+        <v>0</v>
+      </c>
+      <c r="O150" s="11">
+        <v>0</v>
+      </c>
+      <c r="P150" s="11">
         <v>0.9</v>
       </c>
-      <c r="Q150">
+      <c r="Q150" s="11">
         <v>0.1</v>
       </c>
-      <c r="R150">
-        <v>0</v>
-      </c>
-      <c r="S150">
+      <c r="R150" s="11">
+        <v>0</v>
+      </c>
+      <c r="S150" s="11">
         <v>2.8</v>
       </c>
-      <c r="T150">
-        <v>1</v>
-      </c>
-      <c r="U150">
+      <c r="T150" s="11">
+        <v>1</v>
+      </c>
+      <c r="U150" s="11">
         <v>3</v>
       </c>
-      <c r="V150">
+      <c r="V150" s="11">
         <v>6</v>
       </c>
-      <c r="W150">
+      <c r="W150" s="11">
         <v>3</v>
       </c>
-      <c r="X150">
+      <c r="X150" s="11">
         <v>2</v>
       </c>
-      <c r="Y150">
+      <c r="Y150" s="11">
         <v>17.3</v>
       </c>
     </row>
-    <row r="151" spans="1:25">
-      <c r="A151">
-        <v>0</v>
-      </c>
-      <c r="B151">
+    <row r="151" spans="1:25" s="11" customFormat="1">
+      <c r="A151" s="11">
+        <v>0</v>
+      </c>
+      <c r="B151" s="11">
         <v>1.35</v>
       </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
+      <c r="C151" s="11">
+        <v>0</v>
+      </c>
+      <c r="D151" s="11">
+        <v>0</v>
+      </c>
+      <c r="E151" s="11">
+        <v>0</v>
+      </c>
+      <c r="F151" s="11">
         <v>0.15</v>
       </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
+      <c r="G151" s="11">
+        <v>0</v>
+      </c>
+      <c r="H151" s="11">
         <v>1.35</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="11">
         <v>0.15</v>
       </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <v>0</v>
-      </c>
-      <c r="N151">
-        <v>0</v>
-      </c>
-      <c r="O151">
-        <v>0</v>
-      </c>
-      <c r="P151">
+      <c r="J151" s="11">
+        <v>0</v>
+      </c>
+      <c r="K151" s="11">
+        <v>0</v>
+      </c>
+      <c r="L151" s="11">
+        <v>0</v>
+      </c>
+      <c r="M151" s="11">
+        <v>0</v>
+      </c>
+      <c r="N151" s="11">
+        <v>0</v>
+      </c>
+      <c r="O151" s="11">
+        <v>0</v>
+      </c>
+      <c r="P151" s="11">
         <v>0.9</v>
       </c>
-      <c r="Q151">
+      <c r="Q151" s="11">
         <v>0.1</v>
       </c>
-      <c r="R151">
-        <v>0</v>
-      </c>
-      <c r="S151">
+      <c r="R151" s="11">
+        <v>0</v>
+      </c>
+      <c r="S151" s="11">
         <v>2.8</v>
       </c>
-      <c r="T151">
-        <v>1</v>
-      </c>
-      <c r="U151">
+      <c r="T151" s="11">
+        <v>1</v>
+      </c>
+      <c r="U151" s="11">
         <v>3</v>
       </c>
-      <c r="V151">
+      <c r="V151" s="11">
         <v>6</v>
       </c>
-      <c r="W151">
+      <c r="W151" s="11">
         <v>3</v>
       </c>
-      <c r="X151">
+      <c r="X151" s="11">
         <v>2</v>
       </c>
-      <c r="Y151">
+      <c r="Y151" s="11">
         <v>16.7</v>
       </c>
     </row>
-    <row r="152" spans="1:25">
-      <c r="A152" s="3">
-        <v>0</v>
-      </c>
-      <c r="B152" s="3">
+    <row r="152" spans="1:25" s="11" customFormat="1">
+      <c r="A152" s="11">
+        <v>0</v>
+      </c>
+      <c r="B152" s="11">
         <v>1.2</v>
       </c>
-      <c r="C152" s="3">
-        <v>0</v>
-      </c>
-      <c r="D152" s="3">
-        <v>0</v>
-      </c>
-      <c r="E152" s="3">
-        <v>0</v>
-      </c>
-      <c r="F152" s="3">
+      <c r="C152" s="11">
+        <v>0</v>
+      </c>
+      <c r="D152" s="11">
+        <v>0</v>
+      </c>
+      <c r="E152" s="11">
+        <v>0</v>
+      </c>
+      <c r="F152" s="11">
         <v>0.3</v>
       </c>
-      <c r="G152" s="3">
-        <v>0</v>
-      </c>
-      <c r="H152" s="3">
+      <c r="G152" s="11">
+        <v>0</v>
+      </c>
+      <c r="H152" s="11">
         <v>1.2</v>
       </c>
-      <c r="I152" s="3">
+      <c r="I152" s="11">
         <v>0.3</v>
       </c>
-      <c r="J152" s="3">
-        <v>0</v>
-      </c>
-      <c r="K152" s="3">
-        <v>0</v>
-      </c>
-      <c r="L152" s="3">
-        <v>0</v>
-      </c>
-      <c r="M152" s="3">
-        <v>0</v>
-      </c>
-      <c r="N152" s="3">
-        <v>0</v>
-      </c>
-      <c r="O152" s="3">
-        <v>0</v>
-      </c>
-      <c r="P152" s="3">
+      <c r="J152" s="11">
+        <v>0</v>
+      </c>
+      <c r="K152" s="11">
+        <v>0</v>
+      </c>
+      <c r="L152" s="11">
+        <v>0</v>
+      </c>
+      <c r="M152" s="11">
+        <v>0</v>
+      </c>
+      <c r="N152" s="11">
+        <v>0</v>
+      </c>
+      <c r="O152" s="11">
+        <v>0</v>
+      </c>
+      <c r="P152" s="11">
         <v>0.9</v>
       </c>
-      <c r="Q152" s="3">
+      <c r="Q152" s="11">
         <v>0.1</v>
       </c>
-      <c r="R152" s="3">
-        <v>0</v>
-      </c>
-      <c r="S152" s="3">
+      <c r="R152" s="11">
+        <v>0</v>
+      </c>
+      <c r="S152" s="11">
         <v>2.8</v>
       </c>
-      <c r="T152" s="3">
-        <v>1</v>
-      </c>
-      <c r="U152" s="3">
+      <c r="T152" s="11">
+        <v>1</v>
+      </c>
+      <c r="U152" s="11">
         <v>3</v>
       </c>
-      <c r="V152" s="3">
+      <c r="V152" s="11">
         <v>6</v>
       </c>
-      <c r="W152" s="3">
+      <c r="W152" s="11">
         <v>3</v>
       </c>
-      <c r="X152" s="3">
+      <c r="X152" s="11">
         <v>2</v>
       </c>
-      <c r="Y152" s="3">
+      <c r="Y152" s="11">
         <v>15.3</v>
       </c>
     </row>
+    <row r="153" spans="1:25" s="11" customFormat="1"/>
+    <row r="154" spans="1:25" s="11" customFormat="1"/>
+    <row r="155" spans="1:25" s="11" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
